--- a/biology/Zoologie/Élytre/Élytre.xlsx
+++ b/biology/Zoologie/Élytre/Élytre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lytre</t>
+          <t>Élytre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un élytre (du grec ἔλυτρον / élutron, « étui ») constitue une des deux ailes antérieures, durcies et cornées (partiellement ou totalement sclérifiées), qui recouvrent au repos les ailes postérieures de certains insectes, notamment ceux de l'ordre des coléoptères, à la façon d'un étui. Le nom des coléoptères vient d'ailleurs du latin coleus, étui.Les élytres sont parfois appelés tegmina (ou tegmen au singulier), en particulier chez les orthoptères.
 Durant le vol, les élytres ne battent pas ; ils sont simplement relevés pour permettre le mouvement des ailes postérieures et donner plus de stabilité. Au repos, ils protègent principalement les ailes, mais peuvent servir de défense, soit à l'aide de couleurs vives qui effraient leurs prédateurs, soit en adoptant les tons de l'habitat naturel de l'insecte, servant ainsi de camouflage.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lytre</t>
+          <t>Élytre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>http://aramel.free.fr/INSECTES5terter.shtml</t>
         </is>
